--- a/Calificación de parcial/Notas Primer Parcial - Grupo B.xlsx
+++ b/Calificación de parcial/Notas Primer Parcial - Grupo B.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mauricio Aguilar\Desktop\Universidad\Ayudantías\Ayudantia ABD 2020\Calificación de parcial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\administracionBD\Calificación de parcial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5373250F-C618-4CBE-A741-6759CE20253C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4144A5F0-DA3A-4049-94C3-42F1EC5F8A2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5775" yWindow="195" windowWidth="20970" windowHeight="14355" xr2:uid="{F72B2E69-6FA1-4239-9685-E852DAC6FF06}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{F72B2E69-6FA1-4239-9685-E852DAC6FF06}"/>
   </bookViews>
   <sheets>
     <sheet name="Notas primer parcial" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -313,16 +304,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B8E2BD61-284B-46DC-958D-5946B24587A5}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -352,9 +354,9 @@
     <tableColumn id="6" xr3:uid="{F1527717-6B40-4A1E-8E64-87BCBE9BF814}" name="Presente"/>
     <tableColumn id="7" xr3:uid="{E1AE5BA4-0F33-4614-A67F-43C26D7D63EF}" name="Cámara"/>
     <tableColumn id="8" xr3:uid="{EF6D9CA1-FAE4-4A98-B4BD-0E1B06DB1FC2}" name="Asistencia"/>
-    <tableColumn id="9" xr3:uid="{FFA77579-DD09-4171-AFFA-B0075616C15C}" name="Ejercicio 1"/>
-    <tableColumn id="10" xr3:uid="{2744B52E-5FA6-42CC-9DD6-D494E96B8C12}" name="Ejercicio 2"/>
-    <tableColumn id="11" xr3:uid="{B818B2BA-5E2B-425B-B44E-69C408EC132C}" name="Ejercicio 3"/>
+    <tableColumn id="9" xr3:uid="{FFA77579-DD09-4171-AFFA-B0075616C15C}" name="Ejercicio 1" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{2744B52E-5FA6-42CC-9DD6-D494E96B8C12}" name="Ejercicio 2" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{B818B2BA-5E2B-425B-B44E-69C408EC132C}" name="Ejercicio 3" dataDxfId="1"/>
     <tableColumn id="12" xr3:uid="{A69D76B3-B1DE-4BB4-995B-10672938612C}" name="Promedio" dataDxfId="0">
       <calculatedColumnFormula>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</calculatedColumnFormula>
     </tableColumn>
@@ -364,7 +366,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -663,10 +665,10 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -676,6 +678,8 @@
     <col min="6" max="6" width="11.140625" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -741,9 +745,18 @@
       <c r="H2" t="s">
         <v>72</v>
       </c>
-      <c r="L2">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="I2" s="2">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -771,9 +784,18 @@
       <c r="H3" t="s">
         <v>72</v>
       </c>
-      <c r="L3">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="I3" s="2">
+        <v>7.75</v>
+      </c>
+      <c r="J3" s="2">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2">
+        <v>7</v>
+      </c>
+      <c r="L3" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>8.25</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -801,9 +823,18 @@
       <c r="H4" t="s">
         <v>72</v>
       </c>
-      <c r="L4">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="I4" s="2">
+        <v>9</v>
+      </c>
+      <c r="J4" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="K4" s="2">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>9.1666666666666661</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -831,9 +862,18 @@
       <c r="H5" t="s">
         <v>72</v>
       </c>
-      <c r="L5">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="I5" s="2">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="K5" s="2">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>9.8333333333333339</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -861,9 +901,18 @@
       <c r="H6" t="s">
         <v>72</v>
       </c>
-      <c r="L6">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="I6" s="2">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="K6" s="2">
+        <v>9</v>
+      </c>
+      <c r="L6" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>9.5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -891,9 +940,18 @@
       <c r="H7" t="s">
         <v>72</v>
       </c>
-      <c r="L7">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="I7" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="J7" s="2">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>9.5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -921,9 +979,18 @@
       <c r="H8" t="s">
         <v>72</v>
       </c>
-      <c r="L8">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="I8" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="J8" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="K8" s="2">
+        <v>9</v>
+      </c>
+      <c r="L8" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -951,9 +1018,18 @@
       <c r="H9" t="s">
         <v>72</v>
       </c>
-      <c r="L9">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="I9" s="2">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2">
+        <v>8.25</v>
+      </c>
+      <c r="K9" s="2">
+        <v>10</v>
+      </c>
+      <c r="L9" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>9.4166666666666661</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -981,9 +1057,18 @@
       <c r="H10" t="s">
         <v>72</v>
       </c>
-      <c r="L10">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="I10" s="2">
+        <v>10</v>
+      </c>
+      <c r="J10" s="2">
+        <v>10</v>
+      </c>
+      <c r="K10" s="2">
+        <v>10</v>
+      </c>
+      <c r="L10" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1011,9 +1096,18 @@
       <c r="H11" t="s">
         <v>72</v>
       </c>
-      <c r="L11">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="I11" s="2">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2">
+        <v>4</v>
+      </c>
+      <c r="K11" s="2">
+        <v>5</v>
+      </c>
+      <c r="L11" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>6.333333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1041,9 +1135,18 @@
       <c r="H12" t="s">
         <v>72</v>
       </c>
-      <c r="L12">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="I12" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="J12" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="K12" s="2">
+        <v>7.75</v>
+      </c>
+      <c r="L12" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>7.583333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1071,9 +1174,18 @@
       <c r="H13" t="s">
         <v>72</v>
       </c>
-      <c r="L13">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="I13" s="2">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2">
+        <v>10</v>
+      </c>
+      <c r="K13" s="2">
+        <v>3</v>
+      </c>
+      <c r="L13" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>7.666666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1101,9 +1213,18 @@
       <c r="H14" t="s">
         <v>72</v>
       </c>
-      <c r="L14">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="I14" s="2">
+        <v>7</v>
+      </c>
+      <c r="J14" s="2">
+        <v>9</v>
+      </c>
+      <c r="K14" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="L14" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>8.5</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1131,9 +1252,18 @@
       <c r="H15" t="s">
         <v>72</v>
       </c>
-      <c r="L15">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="I15" s="2">
+        <v>10</v>
+      </c>
+      <c r="J15" s="2">
+        <v>10</v>
+      </c>
+      <c r="K15" s="2">
+        <v>7</v>
+      </c>
+      <c r="L15" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1161,9 +1291,18 @@
       <c r="H16" t="s">
         <v>72</v>
       </c>
-      <c r="L16">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="I16" s="2">
+        <v>10</v>
+      </c>
+      <c r="J16" s="2">
+        <v>7</v>
+      </c>
+      <c r="K16" s="2">
+        <v>10</v>
+      </c>
+      <c r="L16" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1191,489 +1330,642 @@
       <c r="H17" t="s">
         <v>74</v>
       </c>
-      <c r="L17">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="I17" s="2">
+        <v>10</v>
+      </c>
+      <c r="J17" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="K17" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="L17" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>9.6666666666666661</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
         <v>20195454</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>35</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" t="s">
-        <v>72</v>
-      </c>
-      <c r="L18">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="F18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="2">
+        <v>10</v>
+      </c>
+      <c r="J18" s="2">
+        <v>10</v>
+      </c>
+      <c r="K18" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="L18" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>9.8333333333333339</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1">
         <v>20191112</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>38</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" t="s">
-        <v>72</v>
-      </c>
-      <c r="L19">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="F19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="2">
+        <v>7.75</v>
+      </c>
+      <c r="J19" s="2">
+        <v>9</v>
+      </c>
+      <c r="K19" s="2">
+        <v>5</v>
+      </c>
+      <c r="L19" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>7.25</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
         <v>20191118</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>41</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" t="s">
-        <v>72</v>
-      </c>
-      <c r="L20">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="F20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="J20" s="2">
+        <v>9.25</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>6.25</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
         <v>20191803</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>43</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" t="s">
-        <v>72</v>
-      </c>
-      <c r="L21">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="F21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="J21" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="K21" s="2">
+        <v>9.25</v>
+      </c>
+      <c r="L21" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>8.4166666666666661</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1">
         <v>20192991</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>46</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L22">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="F22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="J22" s="2">
+        <v>7.75</v>
+      </c>
+      <c r="K22" s="2">
+        <v>9.25</v>
+      </c>
+      <c r="L22" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>8.1666666666666661</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
         <v>20195398</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>47</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F23" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" t="s">
-        <v>72</v>
-      </c>
-      <c r="L23">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="F23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="2">
+        <v>8</v>
+      </c>
+      <c r="J23" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="K23" s="2">
+        <v>5</v>
+      </c>
+      <c r="L23" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>6.166666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1">
         <v>20191400</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>48</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F24" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24" t="s">
-        <v>72</v>
-      </c>
-      <c r="H24" t="s">
-        <v>72</v>
-      </c>
-      <c r="L24">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="F24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="J24" s="2">
+        <v>10</v>
+      </c>
+      <c r="K24" s="2">
+        <v>10</v>
+      </c>
+      <c r="L24" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>9.8333333333333339</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1">
         <v>20191676</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>49</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F25" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25" t="s">
-        <v>72</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="F25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L25">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="I25" s="2">
+        <v>10</v>
+      </c>
+      <c r="J25" s="2">
+        <v>10</v>
+      </c>
+      <c r="K25" s="2">
+        <v>10</v>
+      </c>
+      <c r="L25" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
         <v>20191325</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>50</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F26" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" t="s">
-        <v>72</v>
-      </c>
-      <c r="L26">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="F26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="2">
+        <v>10</v>
+      </c>
+      <c r="J26" s="2">
+        <v>10</v>
+      </c>
+      <c r="K26" s="2">
+        <v>10</v>
+      </c>
+      <c r="L26" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
         <v>20191315</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>51</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F27" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" t="s">
-        <v>72</v>
-      </c>
-      <c r="L27">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="F27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="2">
+        <v>10</v>
+      </c>
+      <c r="J27" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="K27" s="2">
+        <v>10</v>
+      </c>
+      <c r="L27" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>9.8333333333333339</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1">
         <v>20190904</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>52</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L28">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="F28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" s="2">
+        <v>10</v>
+      </c>
+      <c r="J28" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="K28" s="2">
+        <v>10</v>
+      </c>
+      <c r="L28" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>9.5</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1">
         <v>20195452</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>53</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F29" t="s">
-        <v>72</v>
-      </c>
-      <c r="G29" t="s">
-        <v>72</v>
-      </c>
-      <c r="H29" t="s">
-        <v>72</v>
-      </c>
-      <c r="L29">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="F29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="J29" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="K29" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="L29" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>6.166666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1">
         <v>20191454</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>56</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F30" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" t="s">
-        <v>72</v>
-      </c>
-      <c r="L30">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="F30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I30" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="J30" s="2">
+        <v>10</v>
+      </c>
+      <c r="K30" s="2">
+        <v>5</v>
+      </c>
+      <c r="L30" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>7.833333333333333</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1">
         <v>20191368</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>60</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" t="s">
-        <v>72</v>
-      </c>
-      <c r="H31" t="s">
-        <v>72</v>
-      </c>
-      <c r="L31">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="F31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I31" s="2">
+        <v>10</v>
+      </c>
+      <c r="J31" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="K31" s="2">
+        <v>10</v>
+      </c>
+      <c r="L31" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>9.8333333333333339</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1">
         <v>20192111</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>61</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F32" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" t="s">
-        <v>72</v>
-      </c>
-      <c r="H32" t="s">
-        <v>72</v>
-      </c>
-      <c r="L32">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="F32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32" s="2">
+        <v>10</v>
+      </c>
+      <c r="J32" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="K32" s="2">
+        <v>9.75</v>
+      </c>
+      <c r="L32" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>9.75</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1">
         <v>20192380</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>62</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F33" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" t="s">
-        <v>72</v>
-      </c>
-      <c r="L33">
-        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
-        <v>0</v>
+      <c r="F33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" s="2">
+        <v>10</v>
+      </c>
+      <c r="J33" s="2">
+        <v>9.75</v>
+      </c>
+      <c r="K33" s="2">
+        <v>9.75</v>
+      </c>
+      <c r="L33" s="2">
+        <f>IFERROR(AVERAGE(tblNotas[[#This Row],[Ejercicio 1]:[Ejercicio 3]]),0)</f>
+        <v>9.8333333333333339</v>
       </c>
     </row>
   </sheetData>
